--- a/doc/ue_cmd.xlsx
+++ b/doc/ue_cmd.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590018AE-6609-4F56-B25E-04EF2A50253E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>COOK资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,12 +48,15 @@
   <si>
     <t>一些常用的UE命令行</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\UE\UnrealEngine-4.27.2-release\Engine\Binaries\Win64&gt;UnrealPak.exe studio11.pak -create=F:\UEProject\MyProject004\Saved\Cooked\WindowsNoEditor\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,11 +392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -400,24 +404,29 @@
     <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">

--- a/doc/ue_cmd.xlsx
+++ b/doc/ue_cmd.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590018AE-6609-4F56-B25E-04EF2A50253E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>COOK资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,13 +49,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\UE\UnrealEngine-4.27.2-release\Engine\Binaries\Win64&gt;UnrealPak.exe studio11.pak -create=F:\UEProject\MyProject004\Saved\Cooked\WindowsNoEditor\</t>
+    <t>F:\UE\UnrealEngine-4.27.2-release\Engine\Binaries\Win64&gt;UnrealPak.exe studio11.pak -create=F:\UEProject\MyProject004\Saved\Cooked\WindowsNoEditor\  -compressed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:/UnrealEngine/Engine/Engine/Binaries/Win64/UE4Editor-Cmd.exe D:/UnrealProjects/Blank425/Blank425.uproject -run=Cook TargetPlatform=WindowsNoEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,11 +396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -419,6 +423,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>1</v>

--- a/doc/ue_cmd.xlsx
+++ b/doc/ue_cmd.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="简介" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>COOK资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +55,135 @@
   </si>
   <si>
     <t>D:/UnrealEngine/Engine/Engine/Binaries/Win64/UE4Editor-Cmd.exe D:/UnrealProjects/Blank425/Blank425.uproject -run=Cook TargetPlatform=WindowsNoEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.unrealengine.com/4.27/zh-CN/ProductionPipelines/CommandLineArguments/</t>
+  </si>
+  <si>
+    <t>所有UE相关的命令行参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载指定地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS开启端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port=9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MyGame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="SourceCodePro_Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990000"/>
+        <rFont val="SourceCodePro_Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">exe </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="SourceCodePro_Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF153B65"/>
+        <rFont val="SourceCodePro_Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>Game</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="SourceCodePro_Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF153B65"/>
+        <rFont val="SourceCodePro_Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>Maps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="SourceCodePro_Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF153B65"/>
+        <rFont val="SourceCodePro_Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>MyMap</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-FPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Use -FPS=X to override fixed tick rate if e.g. -BENCHMARK is used.</t>
+  </si>
+  <si>
+    <t>float FixedFPS = 0;</t>
+  </si>
+  <si>
+    <t>FParse::Value(FCommandLine::Get(),TEXT("FPS="),FixedFPS);</t>
+  </si>
+  <si>
+    <t>if (FParse::Value(FCommandLine::Get(),TEXT("Port="),Port) == false)</t>
+  </si>
+  <si>
+    <t>第一个参数就是地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +222,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF990000"/>
+      <name val="SourceCodePro_Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF153B65"/>
+      <name val="SourceCodePro_Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="SourceCodePro_Regular"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,10 +261,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -397,58 +546,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="C12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
